--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,37 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
@@ -85,70 +82,70 @@
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>online</t>
@@ -166,16 +163,16 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
+    <t>co</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
 </sst>
 </file>
@@ -533,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7337662337662337</v>
+        <v>0.2810077519379845</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4377682403433477</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.35</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,39 +891,15 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C9">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>65</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
         <v>47</v>
@@ -944,45 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2</v>
-      </c>
-      <c r="C10">
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>88</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K10">
-        <v>0.7962962962962963</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,45 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11">
-        <v>0.95</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>164</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.76</v>
+        <v>0.7421875</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6896551724137931</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L17">
         <v>32</v>
       </c>
-      <c r="K17">
-        <v>0.68</v>
-      </c>
-      <c r="L17">
-        <v>17</v>
-      </c>
       <c r="M17">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6575342465753424</v>
+        <v>0.65625</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6363636363636364</v>
+        <v>0.5848563968668408</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6103286384976526</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L22">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5694444444444444</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L23">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="M23">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5666666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5193798449612403</v>
+        <v>0.4813559322033898</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4864864864864865</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4565217391304348</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.08585858585858586</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.06698564593301436</v>
+        <v>0.390625</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.06097560975609756</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1515,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.05633802816901409</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,21 +1541,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.04761904761904762</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,21 +1567,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>300</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.04279279279279279</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,85 +1593,137 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>425</v>
+        <v>860</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.03398926654740608</v>
+        <v>0.04173106646058733</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1080</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.0169811320754717</v>
+        <v>0.04076850984067479</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="N37">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0.21</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>1563</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.01477199743095697</v>
+        <v>0.03699421965317919</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0.23</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>1534</v>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.02554154542515357</v>
+      </c>
+      <c r="L39">
+        <v>79</v>
+      </c>
+      <c r="M39">
+        <v>93</v>
+      </c>
+      <c r="N39">
+        <v>0.85</v>
+      </c>
+      <c r="O39">
+        <v>0.15</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.02008788449466416</v>
+      </c>
+      <c r="L40">
+        <v>64</v>
+      </c>
+      <c r="M40">
+        <v>79</v>
+      </c>
+      <c r="N40">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O40">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3122</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,73 +58,76 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>protect</t>
   </si>
   <si>
     <t>like</t>
@@ -133,40 +136,34 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -530,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -599,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.636986301369863</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="C4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2810077519379845</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C5">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -749,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2275132275132275</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.8482142857142857</v>
@@ -799,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1879194630872483</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1587301587301587</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,21 +888,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="B9">
+        <v>0.06970509383378017</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>347</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.7734375</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +938,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +964,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7583333333333333</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L11">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +990,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7421875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7169811320754716</v>
+        <v>0.6875</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7058823529411765</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1078,16 +1099,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>0.625</v>
+      </c>
+      <c r="L18">
         <v>30</v>
       </c>
-      <c r="K18">
-        <v>0.65625</v>
-      </c>
-      <c r="L18">
-        <v>105</v>
-      </c>
       <c r="M18">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1172,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6349206349206349</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5957446808510638</v>
+        <v>0.587467362924282</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5848563968668408</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L21">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5777777777777777</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.550561797752809</v>
+        <v>0.54</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5264705882352941</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L25">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M25">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.4813559322033898</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L26">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M26">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4435146443514644</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L28">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4102564102564102</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.3972602739726027</v>
+        <v>0.390625</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.390625</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,47 +1510,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.09330143540669857</v>
+        <v>0.07054871220604703</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>379</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.09134615384615384</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,47 +1562,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.06375838926174497</v>
+        <v>0.04777777777777778</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>837</v>
+        <v>857</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.04550499445061043</v>
+        <v>0.0461361014994233</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1593,137 +1614,85 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>860</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.04173106646058733</v>
+        <v>0.03750586029067042</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>620</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.04076850984067479</v>
+        <v>0.02297734627831715</v>
       </c>
       <c r="L37">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2047</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.03699421965317919</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.24</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39">
-        <v>0.02554154542515357</v>
-      </c>
-      <c r="L39">
-        <v>79</v>
-      </c>
-      <c r="M39">
-        <v>93</v>
-      </c>
-      <c r="N39">
-        <v>0.85</v>
-      </c>
-      <c r="O39">
-        <v>0.15</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40">
-        <v>0.02008788449466416</v>
-      </c>
-      <c r="L40">
-        <v>64</v>
-      </c>
-      <c r="M40">
-        <v>79</v>
-      </c>
-      <c r="N40">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O40">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3122</v>
+        <v>3133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,106 +64,118 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -527,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -646,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6575342465753424</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2945736434108527</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2698412698412698</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.84375</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2281879194630873</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7926829268292683</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.126984126984127</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7758620689655172</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,37 +908,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06970509383378017</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="C9">
         <v>26</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.7734375</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +958,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.7647058823529411</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -972,13 +984,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,10 +1013,10 @@
         <v>0.75</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1016,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1024,13 +1036,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1042,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1050,13 +1062,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1068,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1076,13 +1088,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6808510638297872</v>
+        <v>0.74</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1094,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1102,13 +1114,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6792452830188679</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L16">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1120,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1128,13 +1140,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.70625</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1146,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1154,13 +1166,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1180,13 +1192,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6222222222222222</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1198,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1206,13 +1218,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.587467362924282</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1224,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>158</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1232,13 +1244,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.574468085106383</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L21">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1250,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1258,13 +1270,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5730337078651685</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1276,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1284,25 +1296,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.54</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>27</v>
-      </c>
-      <c r="M23">
-        <v>27</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1310,13 +1322,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5205479452054794</v>
+        <v>0.5509138381201044</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1328,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1336,13 +1348,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5147058823529411</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L25">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M25">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1354,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1362,13 +1374,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5084745762711864</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L26">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1380,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>145</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1388,13 +1400,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4871794871794872</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1406,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1414,13 +1426,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4461538461538462</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1432,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1440,13 +1452,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4351464435146444</v>
+        <v>0.4267782426778243</v>
       </c>
       <c r="L29">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M29">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1458,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1466,13 +1478,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.390625</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1484,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1492,13 +1504,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.08133971291866028</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1510,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>384</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1518,25 +1530,25 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.07054871220604703</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L32">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>830</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1544,13 +1556,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.06971153846153846</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1562,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1570,25 +1582,25 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.04777777777777778</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>857</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1596,25 +1608,25 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.0461361014994233</v>
+        <v>0.0761478163493841</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1622,25 +1634,25 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.03750586029067042</v>
+        <v>0.06191950464396285</v>
       </c>
       <c r="L36">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="N36">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="O36">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2053</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1648,25 +1660,25 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.02297734627831715</v>
+        <v>0.05979381443298969</v>
       </c>
       <c r="L37">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3019</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1674,25 +1686,129 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.0163265306122449</v>
+        <v>0.05549389567147614</v>
       </c>
       <c r="L38">
+        <v>50</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M38">
-        <v>68</v>
-      </c>
-      <c r="N38">
-        <v>0.76</v>
-      </c>
-      <c r="O38">
-        <v>0.24</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>3133</v>
+      <c r="K39">
+        <v>0.04400749063670412</v>
+      </c>
+      <c r="L39">
+        <v>94</v>
+      </c>
+      <c r="M39">
+        <v>101</v>
+      </c>
+      <c r="N39">
+        <v>0.93</v>
+      </c>
+      <c r="O39">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>0.04157043879907621</v>
+      </c>
+      <c r="L40">
+        <v>36</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
+        <v>0.97</v>
+      </c>
+      <c r="O40">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41">
+        <v>0.03491755577109602</v>
+      </c>
+      <c r="L41">
+        <v>108</v>
+      </c>
+      <c r="M41">
+        <v>122</v>
+      </c>
+      <c r="N41">
+        <v>0.89</v>
+      </c>
+      <c r="O41">
+        <v>0.11</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>0.02226403261210411</v>
+      </c>
+      <c r="L42">
+        <v>71</v>
+      </c>
+      <c r="M42">
+        <v>83</v>
+      </c>
+      <c r="N42">
+        <v>0.86</v>
+      </c>
+      <c r="O42">
+        <v>0.14</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
